--- a/data/long_razon/P22-Urba-long_razon.xlsx
+++ b/data/long_razon/P22-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-32,53; 8,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 31,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 3,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 23,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,0; 1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 21,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,98; 37,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 38,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,98; 13,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 15,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 10,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,92; 19,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-46,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-32,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-39,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-72,11; -10,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 110,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-56,22; 2,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 115,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,1; -16,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 87,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-14,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-29,79; 0,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 28,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-26,89; 0,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 21,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,56; -4,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 18,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P22-Urba-long_razon.xlsx
+++ b/data/long_razon/P22-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +787,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1212,14 +913,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P22-Urba-long_razon.xlsx
+++ b/data/long_razon/P22-Urba-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>-0.08577897759145725</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.05261887488781984</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1401634885153147</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.1057070114516656</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1358445218103276</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.07854645488891111</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1500349120838006</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1266513101970416</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.1129894520186253</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.06740745906461887</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.1453929897375003</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.1161310259918074</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.2903073368646615</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1568154581412913</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4600702286051558</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.2908869347790135</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2934950671429489</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.08933368017834055</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3299952938092313</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3021286402658626</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.247388010086094</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.08227837979868738</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.3100752117617497</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.2499420963724649</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.1897495601943939</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.3334659358688646</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.1383543837882597</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.1848153031662859</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.04854961067617707</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.2742234325391741</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.07657872924303703</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.0877706088195964</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.05134404374676049</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.2447468925315208</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.02877401741158076</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.03770167183473953</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>-0.05280723280295656</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.06411073280408075</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1018028220493026</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.01499564754131191</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.09573620764360981</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.03347254910336841</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.03742459595763241</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1473459887215443</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.07500508587611118</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.01210387493902231</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.06867533830313326</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.0912518160607225</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.2918753993244269</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1849563460293712</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3402630465985608</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4265337592472274</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.2819504910012826</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.2159729256387274</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.247200737826214</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4393588863710436</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2343456435831466</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.1432903437768205</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2386291513469913</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3415853937304432</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.3849342048507982</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.3662559398180429</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2502664911674288</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.6126684464943301</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.1509540864576291</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1716897361878467</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2263671347412089</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2253805830169689</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.1495840223251452</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.1900180433291158</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.1131904654567289</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.2823400183124583</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,17 +931,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.4439049536498545</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.2923293232356996</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.05842358677723648</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>-0.2973615323123777</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.4061669140102635</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.4071899349499504</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>-0.3703674558312683</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.3476052949156933</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.2487884208002307</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +969,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.6836415447576421</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.1717582487477989</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5347356642617692</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.5332125314648098</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.08952711992737485</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.6618725982912828</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.5500096988930866</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.004640673116863244</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.5199351864153871</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +1007,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>-0.02899210907395519</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.036541327346491</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.9467049468207041</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.02941788274845768</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.056347151151134</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.00732276424485783</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>-0.1118587195626544</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.8047572598568833</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.2028618227875804</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,18 +1049,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1276129777521613</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.08776156109577958</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1160325202310009</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.08860890984860932</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.1431040922537322</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.06600345228233152</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.1384024238101023</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1316523924903196</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.135782672374848</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.0758926256614694</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.1277939513303747</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.110760772031234</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1093,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.27313969870619</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.07195643976969195</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3063643723622338</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2845318062334558</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2545265252121404</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.06593966500813618</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2534341943550839</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2835060583615368</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2369435433396896</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.02633863877543115</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.233186659312854</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2426780793660997</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1137,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.06464180986710384</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3046774789198252</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.06671735045467306</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1573316324720248</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.01713223108660965</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.1992043758991781</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.01555653044138997</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.05224536304130926</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.01700534147228909</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.2085305580904834</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>-0.005511032523526156</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.02341267217888132</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
